--- a/It201819/DEtailed Calculation/anup kumar kesari.xlsx
+++ b/It201819/DEtailed Calculation/anup kumar kesari.xlsx
@@ -616,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
